--- a/data/beds-vents-1025.xlsx
+++ b/data/beds-vents-1025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="622">
   <si>
     <t>DATE</t>
   </si>
@@ -1871,6 +1871,15 @@
   </si>
   <si>
     <t>2021-10-21</t>
+  </si>
+  <si>
+    <t>2021-10-22</t>
+  </si>
+  <si>
+    <t>2021-10-23</t>
+  </si>
+  <si>
+    <t>2021-10-24</t>
   </si>
 </sst>
 </file>
@@ -2228,7 +2237,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O605"/>
+  <dimension ref="A1:O608"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -29841,6 +29850,147 @@
         <v>70.03</v>
       </c>
     </row>
+    <row r="606" spans="1:15">
+      <c r="A606" t="s">
+        <v>619</v>
+      </c>
+      <c r="B606">
+        <v>2246</v>
+      </c>
+      <c r="C606">
+        <v>413</v>
+      </c>
+      <c r="D606">
+        <v>1287</v>
+      </c>
+      <c r="E606">
+        <v>546</v>
+      </c>
+      <c r="F606">
+        <v>2793</v>
+      </c>
+      <c r="G606">
+        <v>226</v>
+      </c>
+      <c r="H606">
+        <v>596</v>
+      </c>
+      <c r="I606">
+        <v>1971</v>
+      </c>
+      <c r="J606">
+        <v>18.39</v>
+      </c>
+      <c r="K606">
+        <v>57.3</v>
+      </c>
+      <c r="L606">
+        <v>24.31</v>
+      </c>
+      <c r="M606">
+        <v>8.09</v>
+      </c>
+      <c r="N606">
+        <v>21.34</v>
+      </c>
+      <c r="O606">
+        <v>70.56999999999999</v>
+      </c>
+    </row>
+    <row r="607" spans="1:15">
+      <c r="A607" t="s">
+        <v>620</v>
+      </c>
+      <c r="B607">
+        <v>2246</v>
+      </c>
+      <c r="C607">
+        <v>422</v>
+      </c>
+      <c r="D607">
+        <v>1229</v>
+      </c>
+      <c r="E607">
+        <v>595</v>
+      </c>
+      <c r="F607">
+        <v>2793</v>
+      </c>
+      <c r="G607">
+        <v>225</v>
+      </c>
+      <c r="H607">
+        <v>597</v>
+      </c>
+      <c r="I607">
+        <v>1971</v>
+      </c>
+      <c r="J607">
+        <v>18.79</v>
+      </c>
+      <c r="K607">
+        <v>54.72</v>
+      </c>
+      <c r="L607">
+        <v>26.49</v>
+      </c>
+      <c r="M607">
+        <v>8.06</v>
+      </c>
+      <c r="N607">
+        <v>21.37</v>
+      </c>
+      <c r="O607">
+        <v>70.56999999999999</v>
+      </c>
+    </row>
+    <row r="608" spans="1:15">
+      <c r="A608" t="s">
+        <v>621</v>
+      </c>
+      <c r="B608">
+        <v>2236</v>
+      </c>
+      <c r="C608">
+        <v>398</v>
+      </c>
+      <c r="D608">
+        <v>1152</v>
+      </c>
+      <c r="E608">
+        <v>686</v>
+      </c>
+      <c r="F608">
+        <v>2796</v>
+      </c>
+      <c r="G608">
+        <v>197</v>
+      </c>
+      <c r="H608">
+        <v>584</v>
+      </c>
+      <c r="I608">
+        <v>2015</v>
+      </c>
+      <c r="J608">
+        <v>17.8</v>
+      </c>
+      <c r="K608">
+        <v>51.52</v>
+      </c>
+      <c r="L608">
+        <v>30.68</v>
+      </c>
+      <c r="M608">
+        <v>7.05</v>
+      </c>
+      <c r="N608">
+        <v>20.89</v>
+      </c>
+      <c r="O608">
+        <v>72.06999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
